--- a/posesiones/1381295.xlsx
+++ b/posesiones/1381295.xlsx
@@ -1994,10 +1994,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2188,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>11</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>21</v>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2482,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>16</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2679,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17">
         <v>23</v>
@@ -2732,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R18">
         <v>13</v>
@@ -2785,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>14</v>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2885,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R21">
         <v>18</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2988,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R23">
         <v>8</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3091,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25">
         <v>21</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3385,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R31">
         <v>30</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3535,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R34">
         <v>19</v>
@@ -3588,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R35">
         <v>14</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3829,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R40">
         <v>7</v>
@@ -3882,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R41">
         <v>15</v>
@@ -3935,7 +3935,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R42">
         <v>16</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4035,7 +4035,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R44">
         <v>17</v>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4232,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R48">
         <v>16</v>
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4476,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4526,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R54">
         <v>24</v>
@@ -4579,7 +4579,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R55">
         <v>11</v>
@@ -4632,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R56">
         <v>18</v>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4732,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R58">
         <v>8</v>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4832,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R60">
         <v>26</v>
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R62">
         <v>17</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -5038,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R64">
         <v>8</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5141,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R66">
         <v>10</v>
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5241,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5288,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5620,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R76">
         <v>24</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5764,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5814,7 +5814,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R80">
         <v>14</v>
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5917,7 +5917,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R82">
         <v>13</v>
@@ -5967,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6205,7 +6205,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R88">
         <v>22</v>
@@ -6258,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6308,7 +6308,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R90">
         <v>23</v>
@@ -6358,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6505,7 +6505,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R94">
         <v>24</v>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6702,7 +6702,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R98">
         <v>20</v>
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R100">
         <v>15</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6908,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R102">
         <v>23</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -7008,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7149,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7196,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7243,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7290,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7387,7 +7387,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R112">
         <v>18</v>
@@ -7443,7 +7443,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R113">
         <v>2</v>
@@ -7487,10 +7487,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7537,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7584,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7725,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7772,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7813,10 +7813,10 @@
         <v>1</v>
       </c>
       <c r="P121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q121">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7866,7 +7866,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R122">
         <v>15</v>
@@ -7919,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7969,7 +7969,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R124">
         <v>15</v>
@@ -8022,7 +8022,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R125">
         <v>14</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8125,7 +8125,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R127">
         <v>10</v>
@@ -8178,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8272,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8319,7 +8319,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8369,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R132">
         <v>10</v>
@@ -8419,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8516,7 +8516,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R135">
         <v>10</v>
@@ -8569,7 +8569,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8616,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8666,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8760,7 +8760,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8810,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R141">
         <v>26</v>
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8907,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -9007,7 +9007,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R145">
         <v>23</v>
@@ -9057,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9104,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9154,7 +9154,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R148">
         <v>18</v>
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9257,7 +9257,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R150">
         <v>8</v>
@@ -9307,7 +9307,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9357,7 +9357,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R152">
         <v>22</v>
@@ -9410,7 +9410,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R153">
         <v>15</v>
@@ -9460,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9510,7 +9510,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R155">
         <v>17</v>
@@ -9560,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9610,7 +9610,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R157">
         <v>3</v>
@@ -9657,7 +9657,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9704,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9751,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9845,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9895,7 +9895,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R163">
         <v>14</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9995,7 +9995,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R165">
         <v>5</v>
@@ -10045,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10095,7 +10095,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R167">
         <v>23</v>
@@ -10148,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10195,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10242,7 +10242,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10339,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10386,7 +10386,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10433,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10574,7 +10574,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10621,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10718,7 +10718,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R180">
         <v>18</v>
@@ -10771,7 +10771,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R181">
         <v>9</v>
@@ -10821,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10868,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10915,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10965,7 +10965,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R185">
         <v>0</v>
@@ -11018,7 +11018,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11068,7 +11068,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R187">
         <v>14</v>
@@ -11121,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11168,7 +11168,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11221,7 +11221,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R190">
         <v>10</v>
@@ -11271,7 +11271,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11365,7 +11365,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11412,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11459,7 +11459,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11506,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11559,7 +11559,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R197">
         <v>19</v>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11656,7 +11656,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11703,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11750,7 +11750,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11803,7 +11803,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R202">
         <v>0</v>
@@ -11853,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11903,7 +11903,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R204">
         <v>3</v>
@@ -11956,7 +11956,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -12003,7 +12003,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12050,7 +12050,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12097,7 +12097,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12147,7 +12147,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R209">
         <v>8</v>
@@ -12197,7 +12197,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12344,7 +12344,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R213">
         <v>18</v>
@@ -12394,7 +12394,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12444,7 +12444,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R215">
         <v>13</v>
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12541,7 +12541,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12591,7 +12591,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12641,7 +12641,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R219">
         <v>28</v>
@@ -12694,7 +12694,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12741,7 +12741,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12788,7 +12788,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12835,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12882,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12929,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12976,7 +12976,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -13023,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13073,7 +13073,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R228">
         <v>3</v>
@@ -13126,7 +13126,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13176,7 +13176,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R230">
         <v>18</v>
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13279,7 +13279,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R232">
         <v>10</v>
@@ -13329,7 +13329,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13420,7 +13420,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13467,7 +13467,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13514,7 +13514,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13561,7 +13561,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13611,7 +13611,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R239">
         <v>34</v>
@@ -13661,7 +13661,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13711,7 +13711,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R241">
         <v>18</v>
@@ -13764,7 +13764,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13811,7 +13811,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13858,7 +13858,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13908,7 +13908,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -14002,7 +14002,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14052,7 +14052,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14099,7 +14099,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14146,7 +14146,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14193,7 +14193,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14243,7 +14243,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R252">
         <v>26</v>
@@ -14290,7 +14290,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R254">
         <v>14</v>
@@ -14390,7 +14390,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14437,7 +14437,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14490,7 +14490,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R257">
         <v>6</v>
@@ -14540,7 +14540,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14587,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14634,7 +14634,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14681,7 +14681,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14728,7 +14728,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14778,7 +14778,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R263">
         <v>10</v>
@@ -14828,7 +14828,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14878,7 +14878,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R265">
         <v>23</v>
@@ -14931,7 +14931,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R266">
         <v>14</v>
@@ -14981,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15031,7 +15031,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R268">
         <v>17</v>
@@ -15081,7 +15081,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15128,7 +15128,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15175,7 +15175,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15222,7 +15222,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15272,7 +15272,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R273">
         <v>3</v>
@@ -15322,7 +15322,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15369,7 +15369,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15416,7 +15416,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15463,7 +15463,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15510,7 +15510,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15557,7 +15557,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15607,7 +15607,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R280">
         <v>7</v>
@@ -15660,7 +15660,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R281">
         <v>6</v>
@@ -15704,10 +15704,10 @@
         <v>1</v>
       </c>
       <c r="P282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q282">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15754,7 +15754,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15801,7 +15801,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15848,7 +15848,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15895,7 +15895,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15989,7 +15989,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16030,10 +16030,10 @@
         <v>1</v>
       </c>
       <c r="P289" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q289">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16083,7 +16083,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R290">
         <v>11</v>
@@ -16133,7 +16133,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16183,7 +16183,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R292">
         <v>15</v>
@@ -16233,7 +16233,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16283,7 +16283,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R294">
         <v>7</v>
@@ -16336,7 +16336,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16386,7 +16386,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R296">
         <v>7</v>
@@ -16436,7 +16436,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16483,7 +16483,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16530,7 +16530,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16577,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16627,7 +16627,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R301">
         <v>12</v>
@@ -16680,7 +16680,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R302">
         <v>15</v>
@@ -16730,7 +16730,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16777,7 +16777,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16824,7 +16824,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16871,7 +16871,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16921,7 +16921,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R307">
         <v>23</v>
@@ -16974,7 +16974,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17024,7 +17024,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R309">
         <v>15</v>
@@ -17077,7 +17077,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17127,7 +17127,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R311">
         <v>7</v>
@@ -17177,7 +17177,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17224,7 +17224,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17271,7 +17271,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17321,7 +17321,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R315">
         <v>0</v>
@@ -17374,7 +17374,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R316">
         <v>12</v>
@@ -17424,7 +17424,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17474,7 +17474,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R318">
         <v>14</v>
@@ -17524,7 +17524,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17571,7 +17571,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17618,7 +17618,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17665,7 +17665,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17712,7 +17712,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17762,7 +17762,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R324">
         <v>9</v>
@@ -17812,7 +17812,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17862,7 +17862,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R326">
         <v>4</v>
@@ -17912,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17962,7 +17962,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R328">
         <v>4</v>
@@ -18012,7 +18012,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18062,7 +18062,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R330">
         <v>13</v>
@@ -18112,7 +18112,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18159,7 +18159,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18206,7 +18206,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18253,7 +18253,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18297,7 +18297,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18347,7 +18347,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R336">
         <v>0</v>
@@ -18400,7 +18400,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R337">
         <v>0</v>
@@ -18453,7 +18453,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18503,7 +18503,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R339">
         <v>11</v>
@@ -18556,7 +18556,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18606,7 +18606,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R341">
         <v>19</v>
@@ -18656,7 +18656,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18703,7 +18703,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18750,7 +18750,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18800,7 +18800,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18847,7 +18847,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18894,7 +18894,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18941,7 +18941,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18988,7 +18988,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19035,7 +19035,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19085,7 +19085,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R351">
         <v>7</v>
@@ -19135,7 +19135,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19185,7 +19185,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19235,7 +19235,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R354">
         <v>8</v>
@@ -19285,7 +19285,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19335,7 +19335,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19385,7 +19385,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R357">
         <v>22</v>
@@ -19435,7 +19435,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19485,7 +19485,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R359">
         <v>8</v>
@@ -19538,7 +19538,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19588,7 +19588,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R361">
         <v>9</v>
@@ -19641,7 +19641,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19691,7 +19691,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R363">
         <v>11</v>
@@ -19741,7 +19741,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19788,7 +19788,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19835,7 +19835,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19882,7 +19882,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19932,7 +19932,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R368">
         <v>5</v>
@@ -19982,7 +19982,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20029,7 +20029,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20079,7 +20079,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R371">
         <v>17</v>
@@ -20132,7 +20132,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20182,7 +20182,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R373">
         <v>9</v>
@@ -20235,7 +20235,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20285,7 +20285,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R375">
         <v>8</v>
@@ -20335,7 +20335,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20385,7 +20385,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R377">
         <v>21</v>
@@ -20438,7 +20438,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R378">
         <v>21</v>
@@ -20488,7 +20488,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20535,7 +20535,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20582,7 +20582,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20629,7 +20629,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20679,7 +20679,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R383">
         <v>22</v>
@@ -20732,7 +20732,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20782,7 +20782,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R385">
         <v>14</v>
@@ -20829,7 +20829,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20876,7 +20876,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20923,7 +20923,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20970,7 +20970,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -21020,7 +21020,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R390">
         <v>10</v>
@@ -21073,7 +21073,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21120,7 +21120,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21170,7 +21170,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21220,7 +21220,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R394">
         <v>33</v>
@@ -21273,7 +21273,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21320,7 +21320,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21367,7 +21367,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21414,7 +21414,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21464,7 +21464,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R399">
         <v>20</v>
@@ -21517,7 +21517,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R400">
         <v>12</v>
@@ -21570,7 +21570,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21617,7 +21617,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21670,7 +21670,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R403">
         <v>5</v>
@@ -21720,7 +21720,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21767,7 +21767,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21814,7 +21814,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21861,7 +21861,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21908,7 +21908,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21958,7 +21958,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R409">
         <v>13</v>
@@ -22011,7 +22011,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22061,7 +22061,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R411">
         <v>7</v>
@@ -22111,7 +22111,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22155,7 +22155,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22202,7 +22202,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22252,7 +22252,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22299,7 +22299,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22346,7 +22346,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22393,7 +22393,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22443,7 +22443,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R419">
         <v>28</v>
@@ -22496,7 +22496,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R420">
         <v>17</v>
@@ -22546,7 +22546,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22596,7 +22596,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R422">
         <v>8</v>
@@ -22646,7 +22646,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22693,7 +22693,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22740,7 +22740,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22790,7 +22790,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R426">
         <v>0</v>
@@ -22843,7 +22843,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R427">
         <v>18</v>
@@ -22896,7 +22896,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22946,7 +22946,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="R429">
         <v>25</v>
@@ -22999,7 +22999,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23049,7 +23049,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="R431">
         <v>6</v>
@@ -23099,7 +23099,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23146,7 +23146,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23240,7 +23240,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23287,7 +23287,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23328,10 +23328,10 @@
         <v>1</v>
       </c>
       <c r="P437" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q437">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23375,7 +23375,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23425,7 +23425,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="R439">
         <v>-600</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23516,10 +23516,10 @@
         <v>1</v>
       </c>
       <c r="P441" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q441">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23569,7 +23569,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R442">
         <v>11</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23666,7 +23666,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23763,7 +23763,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R446">
         <v>14</v>
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23860,7 +23860,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23957,7 +23957,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R450">
         <v>22</v>
@@ -24007,7 +24007,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24054,7 +24054,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24148,7 +24148,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24198,7 +24198,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R455">
         <v>0</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24301,7 +24301,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R457">
         <v>11</v>
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24401,7 +24401,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24451,7 +24451,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R460">
         <v>18</v>
@@ -24504,7 +24504,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R461">
         <v>15</v>
@@ -24554,7 +24554,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24604,7 +24604,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R463">
         <v>17</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24707,7 +24707,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R465">
         <v>11</v>
@@ -24760,7 +24760,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24810,7 +24810,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R467">
         <v>7</v>
@@ -24860,7 +24860,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24907,7 +24907,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24954,7 +24954,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -25004,7 +25004,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R471">
         <v>10</v>
@@ -25057,7 +25057,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25104,7 +25104,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25151,7 +25151,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25245,7 +25245,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25295,7 +25295,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R477">
         <v>25</v>
@@ -25348,7 +25348,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25398,7 +25398,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R479">
         <v>22</v>
@@ -25448,7 +25448,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25495,7 +25495,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25542,7 +25542,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25589,7 +25589,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25639,7 +25639,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R484">
         <v>18</v>
@@ -25692,7 +25692,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R485">
         <v>19</v>
@@ -25745,7 +25745,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R486">
         <v>19</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25892,7 +25892,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25942,7 +25942,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R490">
         <v>16</v>
@@ -25992,7 +25992,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -26042,7 +26042,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R492">
         <v>7</v>
@@ -26095,7 +26095,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26145,7 +26145,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R494">
         <v>12</v>
@@ -26195,7 +26195,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26242,7 +26242,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26289,7 +26289,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26336,7 +26336,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26430,7 +26430,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26480,7 +26480,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R501">
         <v>21</v>
@@ -26533,7 +26533,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26583,7 +26583,7 @@
         <v>1</v>
       </c>
       <c r="Q503">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R503">
         <v>22</v>
@@ -26633,7 +26633,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26680,7 +26680,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26771,7 +26771,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26818,7 +26818,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26868,7 +26868,7 @@
         <v>1</v>
       </c>
       <c r="Q509">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R509">
         <v>0</v>
@@ -26921,7 +26921,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26971,7 +26971,7 @@
         <v>1</v>
       </c>
       <c r="Q511">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R511">
         <v>12</v>
@@ -27021,7 +27021,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -27071,7 +27071,7 @@
         <v>1</v>
       </c>
       <c r="Q513">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R513">
         <v>21</v>
@@ -27121,7 +27121,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27215,7 +27215,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27262,7 +27262,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27312,7 +27312,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27359,7 +27359,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27406,7 +27406,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27453,7 +27453,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27500,7 +27500,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27547,7 +27547,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27597,7 +27597,7 @@
         <v>1</v>
       </c>
       <c r="Q524">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R524">
         <v>28</v>
@@ -27650,7 +27650,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27697,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27744,7 +27744,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27794,7 +27794,7 @@
         <v>1</v>
       </c>
       <c r="Q528">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R528">
         <v>32</v>
@@ -27844,7 +27844,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -27894,7 +27894,7 @@
         <v>1</v>
       </c>
       <c r="Q530">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R530">
         <v>28</v>
@@ -27947,7 +27947,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27997,7 +27997,7 @@
         <v>1</v>
       </c>
       <c r="Q532">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R532">
         <v>19</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="Q533">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -28100,7 +28100,7 @@
         <v>1</v>
       </c>
       <c r="Q534">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R534">
         <v>12</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="Q535">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="536" spans="1:18">
@@ -28203,7 +28203,7 @@
         <v>1</v>
       </c>
       <c r="Q536">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R536">
         <v>20</v>
@@ -28253,7 +28253,7 @@
         <v>0</v>
       </c>
       <c r="Q537">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -28297,7 +28297,7 @@
         <v>0</v>
       </c>
       <c r="Q538">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="Q539">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="540" spans="1:18">
@@ -28391,7 +28391,7 @@
         <v>0</v>
       </c>
       <c r="Q540">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="541" spans="1:18">
@@ -28438,7 +28438,7 @@
         <v>0</v>
       </c>
       <c r="Q541">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="542" spans="1:18">
@@ -28488,7 +28488,7 @@
         <v>1</v>
       </c>
       <c r="Q542">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R542">
         <v>7</v>
@@ -28541,7 +28541,7 @@
         <v>1</v>
       </c>
       <c r="Q543">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R543">
         <v>18</v>
@@ -28591,7 +28591,7 @@
         <v>0</v>
       </c>
       <c r="Q544">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="545" spans="1:18">
@@ -28641,7 +28641,7 @@
         <v>0</v>
       </c>
       <c r="Q545">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="546" spans="1:18">
@@ -28691,7 +28691,7 @@
         <v>1</v>
       </c>
       <c r="Q546">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R546">
         <v>16</v>
@@ -28738,7 +28738,7 @@
         <v>0</v>
       </c>
       <c r="Q547">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="548" spans="1:18">
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="Q548">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="549" spans="1:18">
@@ -28832,7 +28832,7 @@
         <v>0</v>
       </c>
       <c r="Q549">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="550" spans="1:18">
@@ -28882,7 +28882,7 @@
         <v>1</v>
       </c>
       <c r="Q550">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R550">
         <v>16</v>
@@ -28935,7 +28935,7 @@
         <v>1</v>
       </c>
       <c r="Q551">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R551">
         <v>9</v>
@@ -28985,7 +28985,7 @@
         <v>0</v>
       </c>
       <c r="Q552">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="553" spans="1:18">
@@ -29032,7 +29032,7 @@
         <v>0</v>
       </c>
       <c r="Q553">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="554" spans="1:18">
@@ -29079,7 +29079,7 @@
         <v>0</v>
       </c>
       <c r="Q554">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="555" spans="1:18">
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="Q555">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="556" spans="1:18">
@@ -29173,7 +29173,7 @@
         <v>0</v>
       </c>
       <c r="Q556">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="557" spans="1:18">
@@ -29220,7 +29220,7 @@
         <v>0</v>
       </c>
       <c r="Q557">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="558" spans="1:18">
@@ -29267,7 +29267,7 @@
         <v>0</v>
       </c>
       <c r="Q558">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="559" spans="1:18">
@@ -29314,7 +29314,7 @@
         <v>0</v>
       </c>
       <c r="Q559">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="560" spans="1:18">
@@ -29361,7 +29361,7 @@
         <v>0</v>
       </c>
       <c r="Q560">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="561" spans="1:18">
@@ -29408,7 +29408,7 @@
         <v>0</v>
       </c>
       <c r="Q561">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="562" spans="1:18">
@@ -29458,7 +29458,7 @@
         <v>1</v>
       </c>
       <c r="Q562">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R562">
         <v>7</v>
@@ -29511,7 +29511,7 @@
         <v>1</v>
       </c>
       <c r="Q563">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R563">
         <v>3</v>
@@ -29564,7 +29564,7 @@
         <v>0</v>
       </c>
       <c r="Q564">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="565" spans="1:18">
@@ -29611,7 +29611,7 @@
         <v>0</v>
       </c>
       <c r="Q565">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="566" spans="1:18">
@@ -29658,7 +29658,7 @@
         <v>0</v>
       </c>
       <c r="Q566">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="567" spans="1:18">
@@ -29705,7 +29705,7 @@
         <v>0</v>
       </c>
       <c r="Q567">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="568" spans="1:18">
@@ -29755,7 +29755,7 @@
         <v>1</v>
       </c>
       <c r="Q568">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R568">
         <v>3</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="Q569">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="570" spans="1:18">
@@ -29852,7 +29852,7 @@
         <v>0</v>
       </c>
       <c r="Q570">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="571" spans="1:18">
@@ -29902,7 +29902,7 @@
         <v>1</v>
       </c>
       <c r="Q571">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R571">
         <v>9</v>
@@ -29955,7 +29955,7 @@
         <v>0</v>
       </c>
       <c r="Q572">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="573" spans="1:18">
@@ -30005,7 +30005,7 @@
         <v>1</v>
       </c>
       <c r="Q573">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="R573">
         <v>14</v>
@@ -30055,7 +30055,7 @@
         <v>0</v>
       </c>
       <c r="Q574">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="575" spans="1:18">
@@ -30105,7 +30105,7 @@
         <v>1</v>
       </c>
       <c r="Q575">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="R575">
         <v>3</v>
@@ -30161,7 +30161,7 @@
         <v>1</v>
       </c>
       <c r="Q576">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="R576">
         <v>0</v>
@@ -30205,10 +30205,10 @@
         <v>1</v>
       </c>
       <c r="P577" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q577">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="578" spans="1:17">
@@ -30249,7 +30249,7 @@
         <v>0</v>
       </c>
       <c r="Q578">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
